--- a/web_scraping/maps_scraper/webs.xlsx
+++ b/web_scraping/maps_scraper/webs.xlsx
@@ -9,7 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="webs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Limpiador" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Limpiador!$A$1:$A$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">webs!$A$1:$A$56</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,54 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t xml:space="preserve">webs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.landlordstation.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.businessyab.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.firstprestonht.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://willmax.net/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.holtlunsford.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cushmanwakefield.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.brytarcompanies.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.rosebriar.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.mdcglobal.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.planopropertymanagement.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://guardianam.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fathproperties.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://castlebrook.com/index.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trinityinterests.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.hi-reit.com/</t>
   </si>
 </sst>
 </file>
@@ -77,11 +37,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,10 +60,20 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -110,13 +81,13 @@
       <color rgb="FF0563C1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,9 +138,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,7 +151,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,6 +173,23 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -255,18 +253,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.69"/>
   </cols>
@@ -277,81 +283,172 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A56"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -359,5 +456,205 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.69"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A56"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>